--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747424.540475819</v>
+        <v>744725.4883819113</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>146.931192290702</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.833359060644</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.2613113589523</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>98.73296621193214</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>40.27514111676936</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>131.8294280492397</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>268.5086175791956</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>152.8128570831334</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64.46510992163604</v>
+        <v>73.89277763193543</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
         <v>193.3045852332498</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60.93218353038188</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>34.47077851240602</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555728</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502783</v>
       </c>
       <c r="S7" t="n">
         <v>199.15003117566</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.8180175321022</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>96.17625917671575</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915274</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.1549707269075</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184583</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615226</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530802</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>53.91016366522851</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905253</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793008</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881323</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740474</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671010993</v>
       </c>
       <c r="S16" t="n">
-        <v>55.52079624060558</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>56.04917322725547</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671011667</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795658</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.7871326503999</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.08838020946239</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016416</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>36.22494343870298</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703273</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.04906679049557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605716697</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.61263105777468</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.1987639469981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H40" t="n">
-        <v>99.97427419833804</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.2821160880074</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871779</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>352.8371777379745</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>163.4173927214895</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123835</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985591</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201479</v>
+        <v>603.43703734778</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201479</v>
+        <v>603.43703734778</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036629</v>
+        <v>414.0172523312951</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871779</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.9059479379835</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>471.9059479379835</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>471.9059479379835</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>312.668492932528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389251</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389251</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389251</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389251</v>
+        <v>344.0797222513585</v>
       </c>
       <c r="W3" t="n">
-        <v>471.9059479379835</v>
+        <v>344.0797222513585</v>
       </c>
       <c r="X3" t="n">
-        <v>471.9059479379835</v>
+        <v>154.6599372348736</v>
       </c>
       <c r="Y3" t="n">
-        <v>471.9059479379835</v>
+        <v>154.6599372348736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.5644595510528</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C4" t="n">
-        <v>613.5644595510528</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5644595510528</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6513659686596</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686596</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315746</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>447.395098931819</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777546</v>
+        <v>633.0454302264759</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143047</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846282</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846282</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846282</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846282</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X4" t="n">
-        <v>613.5644595510528</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.5644595510528</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1019.193093296728</v>
+        <v>1215.547037498885</v>
       </c>
       <c r="C5" t="n">
-        <v>1019.193093296728</v>
+        <v>846.5845205584733</v>
       </c>
       <c r="D5" t="n">
-        <v>1019.193093296728</v>
+        <v>846.5845205584733</v>
       </c>
       <c r="E5" t="n">
-        <v>864.8366720006331</v>
+        <v>460.796267960229</v>
       </c>
       <c r="F5" t="n">
-        <v>453.8507672110255</v>
+        <v>49.8103631706214</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620865</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405701</v>
+        <v>308.3091729405693</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714444</v>
+        <v>571.8625535714427</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672668</v>
+        <v>896.7859082672651</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.58067091781</v>
+        <v>1231.580670917807</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379517</v>
+        <v>1534.382610379514</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280666</v>
+        <v>1758.316059280663</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871449</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871449</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.39531261611</v>
+        <v>1740.395312616107</v>
       </c>
       <c r="T5" t="n">
-        <v>1740.39531261611</v>
+        <v>1740.395312616107</v>
       </c>
       <c r="U5" t="n">
-        <v>1740.39531261611</v>
+        <v>1486.767863336456</v>
       </c>
       <c r="V5" t="n">
-        <v>1409.332425272539</v>
+        <v>1486.767863336456</v>
       </c>
       <c r="W5" t="n">
-        <v>1409.332425272539</v>
+        <v>1486.767863336456</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.332425272539</v>
+        <v>1486.767863336456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1019.193093296728</v>
+        <v>1486.767863336456</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4544457641168</v>
+        <v>408.454445764114</v>
       </c>
       <c r="C6" t="n">
-        <v>408.4544457641168</v>
+        <v>408.454445764114</v>
       </c>
       <c r="D6" t="n">
-        <v>343.3381731159996</v>
+        <v>333.8152764389267</v>
       </c>
       <c r="E6" t="n">
-        <v>184.1007181105441</v>
+        <v>174.5778214334713</v>
       </c>
       <c r="F6" t="n">
-        <v>37.56616013742904</v>
+        <v>174.5778214334713</v>
       </c>
       <c r="G6" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439755981</v>
+        <v>71.18799439755966</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800181</v>
+        <v>206.8078890800178</v>
       </c>
       <c r="L6" t="n">
-        <v>482.7874089790395</v>
+        <v>435.4881151702588</v>
       </c>
       <c r="M6" t="n">
-        <v>769.00331484918</v>
+        <v>721.7040210403991</v>
       </c>
       <c r="N6" t="n">
-        <v>1077.203149001442</v>
+        <v>1144.990454352904</v>
       </c>
       <c r="O6" t="n">
-        <v>1336.925990327106</v>
+        <v>1404.713295678567</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.80722202779</v>
+        <v>1593.830707169297</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871449</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871449</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856701</v>
+        <v>1736.823381856698</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055439</v>
+        <v>1541.566225055436</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694548</v>
+        <v>1313.455709694545</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462805</v>
+        <v>1078.303601462802</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346035</v>
+        <v>824.0662447346008</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290707</v>
+        <v>616.214744529068</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.4544457641168</v>
+        <v>408.454445764114</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.3213112596855</v>
+        <v>320.1795202931872</v>
       </c>
       <c r="C7" t="n">
-        <v>72.38512833177856</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="D7" t="n">
-        <v>37.56616013742904</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="E7" t="n">
-        <v>37.56616013742904</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="F7" t="n">
-        <v>37.56616013742904</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742904</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742904</v>
+        <v>151.2433373652804</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742899</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256533</v>
+        <v>45.01194249256522</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696023</v>
+        <v>187.0844868696021</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101281</v>
+        <v>424.4148644101277</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467485</v>
+        <v>685.0355944467481</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609252</v>
+        <v>944.8939624609245</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103172</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890529</v>
+        <v>1337.053193890528</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552808</v>
+        <v>1370.039410552807</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.039410552808</v>
+        <v>1255.760791512122</v>
       </c>
       <c r="S7" t="n">
-        <v>1168.877762900627</v>
+        <v>1054.59914385994</v>
       </c>
       <c r="T7" t="n">
-        <v>944.7879295071198</v>
+        <v>830.5093104664336</v>
       </c>
       <c r="U7" t="n">
-        <v>944.7879295071198</v>
+        <v>830.5093104664336</v>
       </c>
       <c r="V7" t="n">
-        <v>690.1034413012329</v>
+        <v>830.5093104664336</v>
       </c>
       <c r="W7" t="n">
-        <v>690.1034413012329</v>
+        <v>830.5093104664336</v>
       </c>
       <c r="X7" t="n">
-        <v>462.1138904032156</v>
+        <v>602.5197595684162</v>
       </c>
       <c r="Y7" t="n">
-        <v>241.3213112596855</v>
+        <v>381.7271804248861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.996585635751</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4896,10 +4896,10 @@
         <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.0465148290272</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>445.0465148290272</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>445.0465148290272</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>297.133421246634</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>297.133421246634</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4996,16 +4996,16 @@
         <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270445</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>673.0360657270445</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>445.0465148290272</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>445.0465148290272</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.629661109385</v>
+        <v>1485.490329133564</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.667144168973</v>
+        <v>1116.527812193153</v>
       </c>
       <c r="D11" t="n">
-        <v>1148.401445562223</v>
+        <v>1116.527812193152</v>
       </c>
       <c r="E11" t="n">
-        <v>1148.401445562223</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>737.4155407726156</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309164</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706881</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656939</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625327</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087827</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484037</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.98851353529</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479988</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464053</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796029</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.99935034537</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3573.020743926734</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.526802048262</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.463914704691</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434578</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2262.229501173498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173507</v>
+        <v>1872.090169197686</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.7769964046645</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>889.4740370626154</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>1397.430603019143</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1532.266717861148</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635254</v>
+        <v>2000.20776219367</v>
       </c>
       <c r="P12" t="n">
-        <v>2480.475928880028</v>
+        <v>2356.438638438443</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868988</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.3803073756005</v>
+        <v>394.3869424262206</v>
       </c>
       <c r="C13" t="n">
-        <v>446.3803073756005</v>
+        <v>225.4507594983137</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3803073756005</v>
+        <v>225.4507594983137</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026428</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648136</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344797</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336945</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818662</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742805</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.74346692558</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.627619458876</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.736286893316</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659996</v>
+        <v>1358.644593842767</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454109</v>
+        <v>1103.96010563688</v>
       </c>
       <c r="W13" t="n">
-        <v>895.162437417148</v>
+        <v>814.5429355999197</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191307</v>
+        <v>796.8279863999904</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073756005</v>
+        <v>576.0354072564603</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,25 +5288,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400839</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406112</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832676</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.06254548758</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238954</v>
+        <v>1977.461080510521</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854719</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648832</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340304</v>
+        <v>1144.284195611871</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138538</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987564</v>
+        <v>695.5020655703237</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179081</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179081</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5744,37 +5744,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782954</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2393.338457106056</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.338457106056</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,28 +5987,28 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812165</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812165</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812165</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279802</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,28 +6713,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400711</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400711</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>365.940507157678</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6853,16 +6853,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038337</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396416</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038344</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703107</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424049</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300691</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>376.4492432300691</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>376.4492432300691</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>209.253143944949</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>153.375901684702</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>46.5660510377764</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.7685219749647</v>
+        <v>15.76852197496481</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>47.7770644533133</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>116.2490900608515</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>278.5493133433887</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438843</v>
+        <v>40.00791436438848</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.33029638073435</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>71.31463618635843</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>92.52379898134066</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811071</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382458045</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>111.1976478713724</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537252903</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844822794</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13.28686650065927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856255</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>250.298054897888</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194152</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>122.8084169651566</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.6332162349392</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392995</v>
       </c>
       <c r="H40" t="n">
-        <v>40.32043864788585</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.01259675821649</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910230.6475013944</v>
+        <v>910230.6475013933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1001563.407885516</v>
+        <v>1001563.407885517</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1001563.407885517</v>
+        <v>1001563.407885516</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787488</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="D2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="E2" t="n">
-        <v>384609.353244058</v>
+        <v>384609.3532440576</v>
       </c>
       <c r="F2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="H2" t="n">
-        <v>423751.9648372533</v>
-      </c>
       <c r="I2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="O2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372529</v>
       </c>
       <c r="P2" t="n">
         <v>423751.964837253</v>
@@ -26366,40 +26366,40 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912884</v>
+        <v>312214.8578912878</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972661</v>
+        <v>175413.4991972666</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545755</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704313</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030134</v>
+        <v>72591.00846030128</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925527</v>
+        <v>43280.54279925546</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273085</v>
+        <v>81897.40371273032</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202422</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403471</v>
+        <v>194111.7371403472</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13501.3895521962</v>
@@ -26430,34 +26430,34 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184271</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184273</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638299</v>
+        <v>79427.52208638293</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738551</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-494766.6221844235</v>
+        <v>-494766.6221844237</v>
       </c>
       <c r="C6" t="n">
-        <v>-154707.1879392697</v>
+        <v>-154707.1879392691</v>
       </c>
       <c r="D6" t="n">
-        <v>17540.42684369959</v>
+        <v>17540.42684369913</v>
       </c>
       <c r="E6" t="n">
-        <v>-27606.67873010154</v>
+        <v>-27827.81004407434</v>
       </c>
       <c r="F6" t="n">
-        <v>119714.3581310748</v>
+        <v>119679.6202056364</v>
       </c>
       <c r="G6" t="n">
-        <v>309022.6269015033</v>
+        <v>308987.8889760679</v>
       </c>
       <c r="H6" t="n">
-        <v>309022.6269015032</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="I6" t="n">
-        <v>309022.6269015035</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="J6" t="n">
-        <v>259957.6821729588</v>
+        <v>259922.9442475229</v>
       </c>
       <c r="K6" t="n">
-        <v>236431.618441202</v>
+        <v>236396.8805157664</v>
       </c>
       <c r="L6" t="n">
-        <v>265742.084102248</v>
+        <v>265707.3461768121</v>
       </c>
       <c r="M6" t="n">
-        <v>227125.2231887726</v>
+        <v>227090.4852633374</v>
       </c>
       <c r="N6" t="n">
-        <v>259183.0527694797</v>
+        <v>259148.3148440435</v>
       </c>
       <c r="O6" t="n">
-        <v>309022.626901503</v>
+        <v>308987.8889760676</v>
       </c>
       <c r="P6" t="n">
-        <v>309022.6269015031</v>
+        <v>308987.8889760675</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282991</v>
+        <v>791.2679074282986</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,46 +26790,46 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>469.577001717863</v>
+        <v>469.5770017178623</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490071</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,22 +26960,22 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153943</v>
+        <v>242.7979665153938</v>
       </c>
       <c r="D3" t="n">
-        <v>142.79698468924</v>
+        <v>142.7969846892405</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974097</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267254</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515429</v>
+        <v>282.0514145515423</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821759</v>
+        <v>171.0078303821764</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506419</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515429</v>
+        <v>282.0514145515421</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821759</v>
+        <v>171.0078303821766</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506417</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515429</v>
+        <v>282.0514145515423</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821759</v>
+        <v>171.0078303821764</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489684</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506419</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>169.9626338155202</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>24.94245412940913</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871021</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
         <v>140.2266713038148</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>28.27187229091501</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377085</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
-        <v>152.9620169489875</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>106.1588215297998</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.4337583055308</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,10 +27588,10 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378003</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.7394943271302</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>93.8802273397975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>114.225224084285</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>229.1175129891284</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094056</v>
+        <v>87.84129258094063</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>82.97995564300271</v>
+        <v>73.55228793270332</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841047</v>
+        <v>95.79797317841049</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224386</v>
+        <v>30.7980189522439</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>118.8997966515554</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.1446945058063</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.91582413137837</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>70.13034086808844</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.666400516522117e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.170519681181759e-11</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.988010005035903e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.970068635477219e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274567</v>
+        <v>3.180976512274565</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633191</v>
+        <v>32.57717570633189</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894653</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586638</v>
+        <v>269.9814052586636</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232462</v>
+        <v>404.632141023246</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607691</v>
+        <v>501.9819509607688</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109319</v>
+        <v>558.5516420109316</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264321</v>
+        <v>567.5895915264317</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325018</v>
+        <v>535.9587563325015</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857234</v>
+        <v>457.4283986857231</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398903</v>
+        <v>343.5096773398902</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391674</v>
+        <v>199.8170158391673</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345676</v>
+        <v>72.48650227345672</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248192</v>
+        <v>13.92472468248191</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819653</v>
+        <v>0.2544781209819652</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128794</v>
+        <v>1.701972480128793</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808599</v>
+        <v>16.43747105808598</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917121</v>
+        <v>58.59861389917118</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142735</v>
+        <v>160.7990754142734</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829027</v>
+        <v>274.8312315829025</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437542</v>
+        <v>369.544507143754</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484229</v>
+        <v>431.2410095484227</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734972</v>
+        <v>442.654675873497</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138013</v>
+        <v>404.9425488138011</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888046</v>
+        <v>325.0020957888044</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301247</v>
+        <v>217.2552941301246</v>
       </c>
       <c r="R6" t="n">
         <v>105.6715895995755</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923438</v>
+        <v>31.61339233923436</v>
       </c>
       <c r="T6" t="n">
-        <v>6.86014346157176</v>
+        <v>6.860143461571756</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926839</v>
+        <v>0.1119718736926838</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4268765543789</v>
+        <v>1.426876554378899</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893241</v>
+        <v>12.6862297289324</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168547</v>
+        <v>42.91006947168545</v>
       </c>
       <c r="J7" t="n">
         <v>100.8801723945882</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087485</v>
+        <v>165.7771124087484</v>
       </c>
       <c r="L7" t="n">
-        <v>212.137628821023</v>
+        <v>212.1376288210229</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014124</v>
+        <v>223.6693857014123</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350912</v>
+        <v>218.3510276350911</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589377</v>
+        <v>201.6825151589375</v>
       </c>
       <c r="P7" t="n">
-        <v>172.574233449608</v>
+        <v>172.5742334496078</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216731</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689124</v>
+        <v>64.15755852689121</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131227</v>
+        <v>24.86656686131226</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709843</v>
+        <v>6.09665436870984</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884917</v>
+        <v>0.07782963023884912</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869137</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639231</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975118</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544645</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954547</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180155</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956792</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620348</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825961</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858569</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837092</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469197</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598375</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747741</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.221474282147</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833381</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924465</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383438</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.6808312360685</v>
+        <v>330.0946129047535</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605172</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627646</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643796</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535153</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798445</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085353</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770058</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531024</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806234</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811696</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493534</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377471</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473721</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770647</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1224556861829</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>290.6810969936916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967679</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>270.4557004614713</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>169.4872848053136</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068258</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197747</v>
+        <v>88.9355007319773</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782657</v>
+        <v>184.5422899782654</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907819</v>
+        <v>266.2155359907816</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836592</v>
+        <v>328.2054087836589</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298411</v>
+        <v>338.1765279298408</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108151</v>
+        <v>305.8605449108147</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304538</v>
+        <v>226.1954029304536</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654409</v>
+        <v>121.2039874654407</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760682</v>
+        <v>33.96144874760674</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085437</v>
+        <v>136.9897926085436</v>
       </c>
       <c r="L6" t="n">
-        <v>278.7671918171933</v>
+        <v>230.9901273638798</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264046</v>
+        <v>289.1069756264043</v>
       </c>
       <c r="N6" t="n">
-        <v>311.312963790164</v>
+        <v>427.5620538510153</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693569</v>
+        <v>262.3463043693566</v>
       </c>
       <c r="P6" t="n">
-        <v>469.577001717863</v>
+        <v>191.0276883744742</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410318</v>
+        <v>287.3508077799522</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.52099227791544</v>
+        <v>7.520992277915383</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828657</v>
+        <v>143.5076205828655</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813392</v>
+        <v>239.727654081339</v>
       </c>
       <c r="M7" t="n">
-        <v>263.253262663253</v>
+        <v>263.2532626632529</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143198</v>
+        <v>262.4832000143197</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729773</v>
+        <v>226.2676430729772</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145014</v>
+        <v>169.8527927145013</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997877</v>
+        <v>33.3194107699787</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525312</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844772</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.309210568182</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739924</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067653</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081466</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553034</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854785</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036948999</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601288</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.1980958000048</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480021</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240136</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.69905715004698</v>
+        <v>190.112838818732</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655325</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186256</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070194</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388464</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.891627232331</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946631</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776289</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.1933770937314</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>379.5262112417385</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.5586081824376</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4812930471411</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
